--- a/Assets/Editor/Buff管理.xlsx
+++ b/Assets/Editor/Buff管理.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\AmorHero\AmorHero\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\QFrameworkLearnProject\AmorHero\AmorHero\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83309514-03C3-4FEA-BFEB-01026AEDB0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7329FB-6BD0-4D7B-9895-0A7E2E88F850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="3060" windowWidth="19770" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>buff_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,11 +39,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>若玩家当前生命值低于生命值上限的1/2；则每秒恢复玩家2点生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玄武庇护I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄武庇护II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家当前生命值低于生命值上限的1/2；则每2秒恢复玩家2点生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家当前生命值低于生命值上限的1/2；则每2秒恢复玩家4点生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄武庇护III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若玩家当前生命值低于生命值上限的1/2；则每2秒恢复玩家8点生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虔诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知己知彼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每击杀五位敌人，你的攻击力上限+5,；buff失效后已获得的攻击上限随之消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每击杀一位敌人，你的意能值上限+5；buff失效后已获得的意能上限随之消失</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,20 +401,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="68.875" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="68.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,15 +425,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
